--- a/challenge.xlsx
+++ b/challenge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\computer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6131BA01-89A6-435F-9116-8FC409520341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759A94F9-B5D8-47DC-925A-A71BEDE82DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -50,6 +50,9 @@
     <x:t>Pass_Fail</x:t>
   </x:si>
   <x:si>
+    <x:t>Reason</x:t>
+  </x:si>
+  <x:si>
     <x:t>Sandeep</x:t>
   </x:si>
   <x:si>
@@ -68,6 +71,9 @@
     <x:t>FAIL</x:t>
   </x:si>
   <x:si>
+    <x:t>Invalid Email IDEmail Empty</x:t>
+  </x:si>
+  <x:si>
     <x:t>Vishal</x:t>
   </x:si>
   <x:si>
@@ -86,6 +92,9 @@
     <x:t>rothe.com</x:t>
   </x:si>
   <x:si>
+    <x:t>Invalid Email ID</x:t>
+  </x:si>
+  <x:si>
     <x:t>Yadav</x:t>
   </x:si>
   <x:si>
@@ -101,6 +110,9 @@
     <x:t>Yadav@gmail.com</x:t>
   </x:si>
   <x:si>
+    <x:t>,Phone Number Empty,,First Name Empty,</x:t>
+  </x:si>
+  <x:si>
     <x:t>Sameer</x:t>
   </x:si>
   <x:si>
@@ -117,6 +129,9 @@
   </x:si>
   <x:si>
     <x:t>Sameer@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>,Phone Number Empty,</x:t>
   </x:si>
   <x:si>
     <x:t>Albert</x:t>
@@ -618,9 +633,9 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I1001"/>
+  <x:dimension ref="A1:J1001"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <x:pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
       <x:selection activeCell="F17" sqref="F17"/>
       <x:selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
@@ -668,31 +683,37 @@
       <x:c r="I1" s="3" t="s">
         <x:v>8</x:v>
       </x:c>
+      <x:c r="J1" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
     </x:row>
     <x:row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A2" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H2" s="0">
         <x:v>40731653811</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -700,28 +721,31 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H3" s="0">
         <x:v>40731653812</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -729,22 +753,25 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -752,25 +779,28 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -778,28 +808,28 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H6" s="0">
         <x:v>40735416854</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -807,28 +837,28 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H7" s="0">
         <x:v>40733652145</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -836,28 +866,28 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H8" s="0">
         <x:v>40799885412</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -865,28 +895,28 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H9" s="0">
         <x:v>40733154268</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -894,28 +924,28 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H10" s="0">
         <x:v>40712462257</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -923,28 +953,28 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H11" s="0">
         <x:v>40731254562</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
